--- a/Symphony/2021/Others/Price List/Price List -20.06.2021.xlsx
+++ b/Symphony/2021/Others/Price List/Price List -20.06.2021.xlsx
@@ -771,6 +771,24 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -823,24 +841,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3239,8 +3239,8 @@
   <dimension ref="A1:K54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q52" sqref="Q52"/>
+      <pane ySplit="4" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L58" sqref="L58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3259,49 +3259,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
     </row>
     <row r="4" spans="1:11" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -4729,28 +4729,28 @@
       <c r="A49" s="22">
         <v>45</v>
       </c>
-      <c r="B49" s="46" t="s">
+      <c r="B49" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="C49" s="47"/>
-      <c r="D49" s="47"/>
-      <c r="E49" s="48">
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="30">
         <v>10230</v>
       </c>
-      <c r="F49" s="48">
+      <c r="F49" s="30">
         <v>10990</v>
       </c>
-      <c r="G49" s="49"/>
-      <c r="H49" s="50" t="s">
+      <c r="G49" s="31"/>
+      <c r="H49" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="I49" s="51" t="s">
+      <c r="I49" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="J49" s="50" t="s">
+      <c r="J49" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="K49" s="50" t="s">
+      <c r="K49" s="32" t="s">
         <v>118</v>
       </c>
     </row>
@@ -4799,49 +4799,49 @@
       <c r="K51" s="22"/>
     </row>
     <row r="52" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="36">
+      <c r="A52" s="42">
         <v>8801717436223</v>
       </c>
-      <c r="B52" s="37"/>
+      <c r="B52" s="43"/>
       <c r="C52" s="19"/>
       <c r="D52" s="19"/>
-      <c r="E52" s="30" t="s">
+      <c r="E52" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="F52" s="31"/>
-      <c r="G52" s="31"/>
-      <c r="H52" s="31"/>
-      <c r="I52" s="32"/>
-      <c r="J52" s="29" t="s">
+      <c r="F52" s="37"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="37"/>
+      <c r="I52" s="38"/>
+      <c r="J52" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="K52" s="29"/>
+      <c r="K52" s="35"/>
     </row>
     <row r="53" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="38"/>
-      <c r="B53" s="39"/>
+      <c r="A53" s="44"/>
+      <c r="B53" s="45"/>
       <c r="C53" s="19"/>
       <c r="D53" s="19"/>
-      <c r="E53" s="33"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="34"/>
-      <c r="H53" s="34"/>
-      <c r="I53" s="35"/>
-      <c r="J53" s="29"/>
-      <c r="K53" s="29"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="40"/>
+      <c r="G53" s="40"/>
+      <c r="H53" s="40"/>
+      <c r="I53" s="41"/>
+      <c r="J53" s="35"/>
+      <c r="K53" s="35"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="28"/>
-      <c r="B54" s="28"/>
-      <c r="C54" s="28"/>
-      <c r="D54" s="28"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="28"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="28"/>
-      <c r="J54" s="28"/>
-      <c r="K54" s="28"/>
+      <c r="A54" s="34"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="34"/>
+      <c r="I54" s="34"/>
+      <c r="J54" s="34"/>
+      <c r="K54" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4878,28 +4878,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
     </row>
     <row r="2" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
     </row>
     <row r="3" spans="1:10" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="51" t="s">
         <v>129</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
